--- a/TestTask2.xlsx
+++ b/TestTask2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timka\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\CodeTasks\ventra-tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CC7B9A-D83C-4CB6-8AB9-468A01AE4A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA20B1-3D4D-432C-A10C-CC8CB3AEFBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Theme</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>тест2</t>
+  </si>
+  <si>
+    <t>https://tests24.su/</t>
+  </si>
+  <si>
+    <t>https://testometrika.com/english/english-test-level-a2/</t>
+  </si>
+  <si>
+    <t>http://test2.byfly.by/</t>
   </si>
 </sst>
 </file>
@@ -354,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,6 +389,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestTask2.xlsx
+++ b/TestTask2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\CodeTasks\ventra-tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timka\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA20B1-3D4D-432C-A10C-CC8CB3AEFBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A8C54-AB51-4628-B840-2BEF255C832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Theme</t>
   </si>
@@ -37,15 +37,6 @@
   </si>
   <si>
     <t>тест2</t>
-  </si>
-  <si>
-    <t>https://tests24.su/</t>
-  </si>
-  <si>
-    <t>https://testometrika.com/english/english-test-level-a2/</t>
-  </si>
-  <si>
-    <t>http://test2.byfly.by/</t>
   </si>
 </sst>
 </file>
@@ -363,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,30 +380,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
